--- a/Ressource/20240506_DIMA_2.xlsx
+++ b/Ressource/20240506_DIMA_2.xlsx
@@ -227,9 +227,6 @@
     <t>TE0232 Biais de la route connue</t>
   </si>
   <si>
-    <t>TA0025 Autocentrage Techique qui favorise l'impression</t>
-  </si>
-  <si>
     <t>TE0211: biais de corrélation illusoire</t>
   </si>
   <si>
@@ -246,13 +243,26 @@
   </si>
   <si>
     <t>TE0143-Effet de contraste</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TA0025 Auto-référence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Techique qui exploite les fait que la cible pense que ses interlocuteurs ont le même niveau de connaissance et partage des références communes.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +336,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -356,102 +371,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -470,342 +394,68 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,7 +776,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1137,226 +787,239 @@
     <col min="4" max="4" width="32.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" ht="79.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="20" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="15" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -1373,19 +1036,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://en.wikipedia.org/wiki/Frequency_illusion"/>
